--- a/scripts_publication/results_benchmarking_revisions_paper2.xlsx
+++ b/scripts_publication/results_benchmarking_revisions_paper2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathyjubin\Documents\Package_learnmet_publication\Version_post_submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathyjubin\Desktop\learnmet2022\learnMET\scripts_publication\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="6005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7490" windowHeight="2410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,57 +137,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="3"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="3"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4F8F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,37 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -526,2022 +460,2033 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="23.76953125" customWidth="1"/>
     <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.25" x14ac:dyDescent="0.85">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>2012</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" t="str">
         <f t="shared" ref="D2:D5" si="0">CONCATENATE("TreintayTres_",C2)</f>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>0.2860742</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.25" x14ac:dyDescent="0.85">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>2012</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" t="str">
         <f t="shared" si="0"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>0.59020329999999999</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3">
         <v>1699.3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.25" x14ac:dyDescent="0.85">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>2012</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>0.48620150000000001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.25" x14ac:dyDescent="0.85">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>2011</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>TreintayTres_2011</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>0.56300950000000005</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.25" x14ac:dyDescent="0.85">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>2012</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" t="str">
         <f>CONCATENATE("TreintayTres_",C6)</f>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>0.44471759999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>2013</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" t="str">
         <f t="shared" ref="D7:D13" si="1">CONCATENATE("TreintayTres_",C7)</f>
         <v>TreintayTres_2013</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>0.74048919999999996</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.25" x14ac:dyDescent="0.85">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>2011</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" t="str">
         <f t="shared" si="1"/>
         <v>TreintayTres_2011</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>0.42767260000000001</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8">
         <v>1756.94</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.25" x14ac:dyDescent="0.85">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>2012</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" t="str">
         <f t="shared" si="1"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>0.39362469999999999</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>800.55</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.25" x14ac:dyDescent="0.85">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>2013</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v>TreintayTres_2013</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>0.47036280000000003</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>834.36</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.25" x14ac:dyDescent="0.85">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
         <v>2011</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" t="str">
         <f t="shared" si="1"/>
         <v>TreintayTres_2011</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>0.58386610000000005</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.25" x14ac:dyDescent="0.85">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>2012</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="1"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>0.46720040000000002</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
         <v>2013</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="1"/>
         <v>TreintayTres_2013</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>0.58126549999999999</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
         <v>2015</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
         <v>0.28125925000000002</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14">
         <v>49.47</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
         <v>2015</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
         <v>0.31453312999999999</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15">
         <v>65.91</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
         <v>2015</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
         <v>7.3135749999999999E-2</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16">
         <v>107.78</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
         <v>2015</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
         <v>0.22214797999999999</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17">
         <v>33.200000000000003</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
         <v>2015</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
         <v>0.35358369000000001</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18">
         <v>33.51</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>2016</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19">
         <v>0.34848474000000002</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>45.89</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
         <v>2016</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20">
         <v>0.31945952999999999</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
         <v>39.590000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
         <v>2016</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
         <v>2.534374E-2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <v>68.61</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
         <v>2016</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
         <v>0.51065932999999997</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <v>28.1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
         <v>2016</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
         <v>0.42350075999999998</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
         <v>41.93</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
         <v>2016</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
         <v>0.21362402</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>52.12</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
         <v>2017</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="12">
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25">
         <v>0.46287669999999997</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>28.9</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
         <v>2017</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="13">
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26">
         <v>0.29462549999999998</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
         <v>146.53</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
         <v>2017</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="8">
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27">
         <v>0.72132569999999996</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
         <v>32.93</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
         <v>2017</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28">
         <v>0.27338620000000002</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <v>28.33</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
         <v>2017</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="8">
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29">
         <v>0.52088299999999998</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
         <v>51.75</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="1">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
         <v>2017</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30">
         <v>0.45200000000000001</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="1">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
         <v>2017</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31">
         <v>0.26900000000000002</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.75">
-      <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
         <v>2017</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32">
         <v>0.746</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>28.7</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
         <v>2017</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33">
         <v>0.38800000000000001</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
         <v>2017</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="8">
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34">
         <v>0.57899999999999996</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
         <v>40.9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
         <v>2016</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="8">
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>93.6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="1">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
         <v>2016</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36">
         <v>0.19700000000000001</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="1">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
         <v>2016</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37">
         <v>0.25</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <v>22.3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="1">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38">
         <v>2016</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="8">
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38">
         <v>0.45100000000000001</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38">
         <v>57.8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="1">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
         <v>2016</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="8">
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39">
         <v>0.27400000000000002</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39">
         <v>28.2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="1">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40">
         <v>2016</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="8">
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40">
         <v>0.41299999999999998</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <v>27.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="1">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41">
         <v>2015</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="8">
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41">
         <v>0.22600000000000001</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
         <v>45.2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="1">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42">
         <v>2015</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42">
         <v>0.42699999999999999</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42">
         <v>41.3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="1">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
         <v>2015</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="1">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44">
         <v>2015</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44">
         <v>0.314</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44">
         <v>30.5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="1">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45">
         <v>2015</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45">
         <v>0.39</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
         <v>41.3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="1">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46">
         <v>2011</v>
       </c>
-      <c r="D46" s="2" t="str">
+      <c r="D46" t="str">
         <f t="shared" ref="D46" si="2">CONCATENATE("TreintayTres_",C46)</f>
         <v>TreintayTres_2011</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>0.51800000000000002</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46">
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="1">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47">
         <v>2012</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="D47" t="str">
         <f>CONCATENATE("TreintayTres_",C47)</f>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>0.38500000000000001</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="1">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48">
         <v>2013</v>
       </c>
-      <c r="D48" s="2" t="str">
+      <c r="D48" t="str">
         <f t="shared" ref="D48:D61" si="3">CONCATENATE("TreintayTres_",C48)</f>
         <v>TreintayTres_2013</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>0.68100000000000005</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48">
         <v>6.4699999999999994E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="1">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49">
         <v>2011</v>
       </c>
-      <c r="D49" s="2" t="str">
+      <c r="D49" t="str">
         <f t="shared" si="3"/>
         <v>TreintayTres_2011</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>0.33800000000000002</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49">
         <v>861</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="1">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50">
         <v>2012</v>
       </c>
-      <c r="D50" s="2" t="str">
+      <c r="D50" t="str">
         <f t="shared" si="3"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>0.34699999999999998</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50">
         <v>2145</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="1">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51">
         <v>2013</v>
       </c>
-      <c r="D51" s="2" t="str">
+      <c r="D51" t="str">
         <f t="shared" si="3"/>
         <v>TreintayTres_2013</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>0.49299999999999999</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51">
         <v>699</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="1">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52">
         <v>2011</v>
       </c>
-      <c r="D52" s="2" t="str">
+      <c r="D52" t="str">
         <f t="shared" si="3"/>
         <v>TreintayTres_2011</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>0.42699999999999999</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52">
         <v>4.36E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="1">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53">
         <v>2012</v>
       </c>
-      <c r="D53" s="2" t="str">
+      <c r="D53" t="str">
         <f t="shared" si="3"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>0.501</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53">
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="1">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54">
         <v>2013</v>
       </c>
-      <c r="D54" s="2" t="str">
+      <c r="D54" t="str">
         <f t="shared" si="3"/>
         <v>TreintayTres_2013</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>0.59599999999999997</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54">
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="1">
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55">
         <v>2012</v>
       </c>
-      <c r="D55" s="2" t="str">
+      <c r="D55" t="str">
         <f t="shared" si="3"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <v>0.35299999999999998</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55">
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="1">
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56">
         <v>2012</v>
       </c>
-      <c r="D56" s="2" t="str">
+      <c r="D56" t="str">
         <f t="shared" si="3"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56">
         <v>0.59899999999999998</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56">
         <v>1705</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A57" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="1">
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57">
         <v>2012</v>
       </c>
-      <c r="D57" s="2" t="str">
+      <c r="D57" t="str">
         <f t="shared" si="3"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <v>0.48599999999999999</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57">
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A58" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="1">
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58">
         <v>2012</v>
       </c>
-      <c r="D58" s="2" t="str">
+      <c r="D58" t="str">
         <f t="shared" si="3"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58">
         <v>0.36899999999999999</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58">
         <v>2.29E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A59" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="1">
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59">
         <v>2012</v>
       </c>
-      <c r="D59" s="2" t="str">
+      <c r="D59" t="str">
         <f t="shared" si="3"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59">
         <v>0.58699999999999997</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59">
         <v>1679</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A60" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="1">
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60">
         <v>2012</v>
       </c>
-      <c r="D60" s="2" t="str">
+      <c r="D60" t="str">
         <f t="shared" si="3"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
         <f>0.515</f>
         <v>0.51500000000000001</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60">
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="1">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61">
         <v>2011</v>
       </c>
-      <c r="D61" s="2" t="str">
+      <c r="D61" t="str">
         <f t="shared" si="3"/>
         <v>TreintayTres_2011</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61">
         <v>0.52400000000000002</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61">
         <v>7.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="1">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62">
         <v>2012</v>
       </c>
-      <c r="D62" s="2" t="str">
+      <c r="D62" t="str">
         <f>CONCATENATE("TreintayTres_",C62)</f>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62">
         <v>0.45300000000000001</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62">
         <v>6.9500000000000006E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="1">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63">
         <v>2013</v>
       </c>
-      <c r="D63" s="2" t="str">
+      <c r="D63" t="str">
         <f t="shared" ref="D63:D69" si="4">CONCATENATE("TreintayTres_",C63)</f>
         <v>TreintayTres_2013</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63">
         <v>0.72299999999999998</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63">
         <v>6.3299999999999995E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="1">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64">
         <v>2011</v>
       </c>
-      <c r="D64" s="2" t="str">
+      <c r="D64" t="str">
         <f t="shared" si="4"/>
         <v>TreintayTres_2011</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64">
         <v>0.16400000000000001</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64">
         <v>4120</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="1">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65">
         <v>2012</v>
       </c>
-      <c r="D65" s="2" t="str">
+      <c r="D65" t="str">
         <f t="shared" si="4"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65">
         <v>0.41599999999999998</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65">
         <v>2139</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="1">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66">
         <v>2013</v>
       </c>
-      <c r="D66" s="2" t="str">
+      <c r="D66" t="str">
         <f t="shared" si="4"/>
         <v>TreintayTres_2013</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66">
         <v>0.56699999999999995</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66">
         <v>618</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="1">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67">
         <v>2011</v>
       </c>
-      <c r="D67" s="2" t="str">
+      <c r="D67" t="str">
         <f t="shared" si="4"/>
         <v>TreintayTres_2011</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67">
         <v>0.55900000000000005</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="1">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68">
         <v>2012</v>
       </c>
-      <c r="D68" s="2" t="str">
+      <c r="D68" t="str">
         <f t="shared" si="4"/>
         <v>TreintayTres_2012</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68">
         <v>0.504</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68">
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="1">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69">
         <v>2013</v>
       </c>
-      <c r="D69" s="2" t="str">
+      <c r="D69" t="str">
         <f t="shared" si="4"/>
         <v>TreintayTres_2013</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69">
         <v>0.61899999999999999</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="1">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70">
         <v>2015</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70">
         <v>0.20100000000000001</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
         <v>44.4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" s="1">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71">
         <v>2015</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71">
         <v>0.499</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71">
         <v>42.1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="1">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72">
         <v>2015</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="1">
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72">
         <v>0.14299999999999999</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" s="1">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73">
         <v>2015</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="1">
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73">
         <v>0.36899999999999999</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73">
         <v>29.9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="1">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74">
         <v>2015</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="1">
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74">
         <v>0.436</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74">
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="1">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75">
         <v>2016</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="1">
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75">
         <v>97.3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="1">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76">
         <v>2016</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="1">
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76">
         <v>0.28199999999999997</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76">
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="1">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77">
         <v>2016</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="1">
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77">
         <v>0.191</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77">
         <v>22.3</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="1">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78">
         <v>2016</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" t="s">
         <v>23</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="1">
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78">
         <v>0.34399999999999997</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78">
         <v>78.2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="1">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79">
         <v>2016</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="1">
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79">
         <v>0.28899999999999998</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79">
         <v>28.6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="1">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80">
         <v>2016</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" t="s">
         <v>25</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="1">
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80">
         <v>0.32900000000000001</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80">
         <v>29.9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="1">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81">
         <v>2017</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" t="s">
         <v>26</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" s="1">
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81">
         <v>0.42799999999999999</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81">
         <v>52.8</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="1">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82">
         <v>2017</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" t="s">
         <v>27</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="1">
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82">
         <v>0.439</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82">
         <v>57.8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" s="1">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83">
         <v>2017</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" t="s">
         <v>28</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" s="1">
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83">
         <v>0.76700000000000002</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83">
         <v>24.8</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C84" s="1">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84">
         <v>2017</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" t="s">
         <v>29</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="1">
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84">
         <v>0.39300000000000002</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84">
         <v>25.8</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="A85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="1">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85">
         <v>2017</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="1">
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85">
         <v>0.63500000000000001</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85">
         <v>45.2</v>
       </c>
     </row>
